--- a/1-14-feb-bill5/1_14_feb_bill.xlsx
+++ b/1-14-feb-bill5/1_14_feb_bill.xlsx
@@ -3616,7 +3616,7 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="125" spans="2:4">
       <c r="B125" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C125">
         <v>8500</v>

--- a/1-14-feb-bill5/1_14_feb_bill.xlsx
+++ b/1-14-feb-bill5/1_14_feb_bill.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -140,9 +140,6 @@
     <t>haseen</t>
   </si>
   <si>
-    <t>sabir</t>
-  </si>
-  <si>
     <t>shabir</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>sabir moti</t>
   </si>
   <si>
     <t>shokeen</t>
@@ -3615,8 +3609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3721,7 +3715,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>2000</v>
@@ -3729,7 +3723,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>1500</v>
@@ -3740,7 +3734,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2000</v>
@@ -3748,7 +3742,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>10000</v>
@@ -3756,7 +3750,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>9500</v>
@@ -3764,7 +3758,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <f>SUM(C2:C15)</f>
@@ -3792,7 +3786,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3803,7 +3797,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>3000</v>
@@ -3814,7 +3808,7 @@
         <v>43501</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>2000</v>
@@ -3822,7 +3816,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>2000</v>
@@ -3862,7 +3856,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>2000</v>
@@ -3878,7 +3872,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>1500</v>
@@ -3918,7 +3912,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>4240</v>
@@ -3926,7 +3920,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <f>SUM(C21:C34)</f>
@@ -3938,7 +3932,7 @@
         <v>43502</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>2000</v>
@@ -3946,7 +3940,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -3954,7 +3948,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>2000</v>
@@ -3962,7 +3956,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>2000</v>
@@ -3970,7 +3964,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>1500</v>
@@ -4042,7 +4036,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="B49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C49">
         <v>500</v>
@@ -4050,7 +4044,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="B50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>3430</v>
@@ -4058,7 +4052,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="B51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <f>SUM(C36:C50)</f>
@@ -4070,7 +4064,7 @@
         <v>43503</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>2000</v>
@@ -4078,7 +4072,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="B53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>2000</v>
@@ -4086,7 +4080,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="B54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C54">
         <v>2000</v>
@@ -4110,7 +4104,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="B57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C57">
         <v>1000</v>
@@ -4118,7 +4112,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="B58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C58">
         <v>1000</v>
@@ -4142,7 +4136,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="B61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>4000</v>
@@ -4150,7 +4144,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62">
         <f>SUM(C52:C61)</f>
@@ -4181,7 +4175,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>2000</v>
@@ -4189,7 +4183,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="B66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66">
         <v>2000</v>
@@ -4197,7 +4191,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="B67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C67">
         <v>2000</v>
@@ -4213,7 +4207,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="B69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69">
         <v>2000</v>
@@ -4229,7 +4223,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="B71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>2000</v>
@@ -4245,7 +4239,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="B73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73">
         <v>1500</v>
@@ -4269,7 +4263,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="B76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C76">
         <v>1000</v>
@@ -4277,7 +4271,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="B77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77">
         <v>4000</v>
@@ -4285,7 +4279,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="B78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C78">
         <v>32000</v>
@@ -4296,7 +4290,7 @@
         <v>43507</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C79">
         <v>2000</v>
@@ -4304,7 +4298,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="B80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80">
         <v>2000</v>
@@ -4312,7 +4306,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="B81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C81">
         <v>2000</v>
@@ -4328,7 +4322,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="B83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C83">
         <v>2000</v>
@@ -4352,7 +4346,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="B86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>2000</v>
@@ -4368,7 +4362,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="B88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C88">
         <v>2000</v>
@@ -4376,7 +4370,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="B89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C89">
         <v>2500</v>
@@ -4408,7 +4402,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="B93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C93">
         <v>8500</v>
@@ -4416,7 +4410,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="B94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C94">
         <f>SUM(C79:C93)</f>
@@ -4436,7 +4430,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="B96" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C96">
         <v>2000</v>
@@ -4444,7 +4438,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="B97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C97">
         <v>2000</v>
@@ -4468,7 +4462,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="B100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C100">
         <v>2500</v>
@@ -4476,7 +4470,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="B101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C101">
         <v>1500</v>
@@ -4492,7 +4486,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="B103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C103">
         <v>2000</v>
@@ -4500,7 +4494,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="B104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C104">
         <v>2000</v>
@@ -4508,7 +4502,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="B105" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C105">
         <v>2000</v>
@@ -4524,7 +4518,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="B107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C107">
         <v>1500</v>
@@ -4548,7 +4542,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="B110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110">
         <v>6500</v>
@@ -4556,7 +4550,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="B111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C111">
         <f>SUM(C95:C110)</f>
@@ -4568,7 +4562,7 @@
         <v>43509</v>
       </c>
       <c r="B112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C112">
         <v>1500</v>
@@ -4576,7 +4570,7 @@
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C113">
         <v>2000</v>
@@ -4584,7 +4578,7 @@
     </row>
     <row r="114" spans="2:4">
       <c r="B114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C114">
         <v>1500</v>
@@ -4603,7 +4597,7 @@
     </row>
     <row r="116" spans="2:4">
       <c r="B116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C116">
         <v>2000</v>
@@ -4630,7 +4624,7 @@
     </row>
     <row r="119" spans="2:4">
       <c r="B119" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C119">
         <v>1500</v>
@@ -4638,7 +4632,7 @@
     </row>
     <row r="120" spans="2:4">
       <c r="B120" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C120">
         <v>1500</v>
@@ -4646,7 +4640,7 @@
     </row>
     <row r="121" spans="2:4">
       <c r="B121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C121">
         <v>1500</v>
@@ -4654,7 +4648,7 @@
     </row>
     <row r="122" spans="2:4">
       <c r="B122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C122">
         <v>2500</v>
@@ -4678,7 +4672,7 @@
     </row>
     <row r="125" spans="2:4">
       <c r="B125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C125">
         <v>8500</v>
@@ -4686,7 +4680,7 @@
     </row>
     <row r="126" spans="2:4">
       <c r="B126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C126">
         <f>SUM(C112:C125)</f>

--- a/1-14-feb-bill5/1_14_feb_bill.xlsx
+++ b/1-14-feb-bill5/1_14_feb_bill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="E273" sqref="E273"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="D273" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -610,6 +610,9 @@
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
       <c r="E5">
         <v>420</v>
       </c>
@@ -621,6 +624,9 @@
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
       <c r="E6">
         <v>496</v>
       </c>
@@ -632,6 +638,9 @@
       <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
       <c r="E7">
         <v>410</v>
       </c>
@@ -643,6 +652,9 @@
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
       <c r="E8">
         <v>470</v>
       </c>
@@ -654,6 +666,9 @@
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
       <c r="E9">
         <v>416</v>
       </c>
@@ -665,6 +680,9 @@
       <c r="C10">
         <v>9</v>
       </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
       <c r="E10">
         <v>538</v>
       </c>
@@ -676,6 +694,9 @@
       <c r="C11">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
       <c r="E11">
         <v>538</v>
       </c>
@@ -687,6 +708,9 @@
       <c r="C12">
         <v>11</v>
       </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
       <c r="E12">
         <v>453</v>
       </c>
@@ -698,6 +722,9 @@
       <c r="C13">
         <v>12</v>
       </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
       <c r="E13">
         <v>411</v>
       </c>
@@ -709,6 +736,9 @@
       <c r="C14">
         <v>13</v>
       </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
       <c r="E14">
         <v>320</v>
       </c>
@@ -720,6 +750,9 @@
       <c r="C15">
         <v>14</v>
       </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
       <c r="E15">
         <v>470</v>
       </c>
@@ -731,6 +764,9 @@
       <c r="C16">
         <v>15</v>
       </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
       <c r="E16">
         <v>419</v>
       </c>
@@ -742,6 +778,9 @@
       <c r="C17">
         <v>16</v>
       </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
       <c r="E17">
         <v>430</v>
       </c>
@@ -753,6 +792,9 @@
       <c r="C18">
         <v>17</v>
       </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
       <c r="E18">
         <v>538</v>
       </c>
@@ -764,6 +806,9 @@
       <c r="C19">
         <v>18</v>
       </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
       <c r="E19">
         <v>415</v>
       </c>
@@ -775,6 +820,9 @@
       <c r="C20">
         <v>19</v>
       </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
       <c r="E20">
         <v>496</v>
       </c>
@@ -786,6 +834,9 @@
       <c r="C21">
         <v>20</v>
       </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
       <c r="E21">
         <v>410</v>
       </c>
@@ -797,6 +848,9 @@
       <c r="C22">
         <v>21</v>
       </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
       <c r="E22">
         <v>455</v>
       </c>
@@ -808,6 +862,9 @@
       <c r="C23">
         <v>22</v>
       </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
       <c r="E23">
         <v>416</v>
       </c>
@@ -819,6 +876,9 @@
       <c r="C24">
         <v>23</v>
       </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
       <c r="E24">
         <v>538</v>
       </c>
@@ -830,6 +890,9 @@
       <c r="C25">
         <v>24</v>
       </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
       <c r="E25">
         <v>470</v>
       </c>
@@ -841,6 +904,9 @@
       <c r="C26">
         <v>25</v>
       </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
       <c r="E26">
         <v>420</v>
       </c>
@@ -852,6 +918,9 @@
       <c r="C27">
         <v>26</v>
       </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
       <c r="E27">
         <v>419</v>
       </c>
@@ -863,6 +932,9 @@
       <c r="C28">
         <v>27</v>
       </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
       <c r="E28">
         <v>430</v>
       </c>
@@ -874,6 +946,9 @@
       <c r="C29">
         <v>28</v>
       </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
       <c r="E29">
         <v>496</v>
       </c>
@@ -885,6 +960,9 @@
       <c r="C30">
         <v>29</v>
       </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
       <c r="E30">
         <v>416</v>
       </c>
@@ -896,6 +974,9 @@
       <c r="C31">
         <v>30</v>
       </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
       <c r="E31">
         <v>410</v>
       </c>
@@ -907,6 +988,9 @@
       <c r="C32">
         <v>31</v>
       </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
       <c r="E32">
         <v>538</v>
       </c>
@@ -918,6 +1002,9 @@
       <c r="C33">
         <v>32</v>
       </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
       <c r="E33">
         <v>415</v>
       </c>
@@ -929,6 +1016,9 @@
       <c r="C34">
         <v>33</v>
       </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
       <c r="E34">
         <v>411</v>
       </c>
@@ -940,6 +1030,9 @@
       <c r="C35">
         <v>34</v>
       </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
       <c r="E35">
         <v>455</v>
       </c>
@@ -951,6 +1044,9 @@
       <c r="C36">
         <v>35</v>
       </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
       <c r="E36">
         <v>470</v>
       </c>
@@ -962,6 +1058,9 @@
       <c r="C37">
         <v>36</v>
       </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
       <c r="E37">
         <v>420</v>
       </c>
@@ -973,6 +1072,9 @@
       <c r="C38">
         <v>37</v>
       </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
       <c r="E38">
         <v>320</v>
       </c>
@@ -984,6 +1086,9 @@
       <c r="C39">
         <v>38</v>
       </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
       <c r="E39">
         <v>538</v>
       </c>
@@ -995,6 +1100,9 @@
       <c r="C40">
         <v>39</v>
       </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
       <c r="E40">
         <v>453</v>
       </c>
@@ -1006,6 +1114,9 @@
       <c r="C41">
         <v>40</v>
       </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
       <c r="E41">
         <v>419</v>
       </c>
@@ -1017,6 +1128,9 @@
       <c r="C42">
         <v>41</v>
       </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
       <c r="E42">
         <v>430</v>
       </c>
@@ -1031,6 +1145,9 @@
       <c r="C43">
         <v>1</v>
       </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
       <c r="E43">
         <v>538</v>
       </c>
@@ -1042,6 +1159,9 @@
       <c r="C44">
         <v>2</v>
       </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
       <c r="E44">
         <v>455</v>
       </c>
@@ -1056,6 +1176,9 @@
       <c r="C45">
         <v>1</v>
       </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
       <c r="E45">
         <v>470</v>
       </c>
@@ -1067,6 +1190,9 @@
       <c r="C46">
         <v>2</v>
       </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
       <c r="E46">
         <v>411</v>
       </c>
@@ -1078,6 +1204,9 @@
       <c r="C47">
         <v>3</v>
       </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
       <c r="E47">
         <v>453</v>
       </c>
@@ -1089,6 +1218,9 @@
       <c r="C48">
         <v>4</v>
       </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
       <c r="E48">
         <v>416</v>
       </c>
@@ -1100,6 +1232,9 @@
       <c r="C49">
         <v>5</v>
       </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
       <c r="E49">
         <v>320</v>
       </c>
@@ -1111,6 +1246,9 @@
       <c r="C50">
         <v>6</v>
       </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
       <c r="E50">
         <v>410</v>
       </c>
@@ -1122,6 +1260,9 @@
       <c r="C51">
         <v>7</v>
       </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
       <c r="E51">
         <v>455</v>
       </c>
@@ -1133,6 +1274,9 @@
       <c r="C52">
         <v>8</v>
       </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
       <c r="E52">
         <v>538</v>
       </c>
@@ -1144,6 +1288,9 @@
       <c r="C53">
         <v>9</v>
       </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
       <c r="E53">
         <v>415</v>
       </c>
@@ -1155,6 +1302,9 @@
       <c r="C54">
         <v>10</v>
       </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
       <c r="E54">
         <v>496</v>
       </c>
@@ -1166,6 +1316,9 @@
       <c r="C55">
         <v>11</v>
       </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
       <c r="E55">
         <v>320</v>
       </c>
@@ -1177,6 +1330,9 @@
       <c r="C56">
         <v>12</v>
       </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
       <c r="E56">
         <v>416</v>
       </c>
@@ -1188,6 +1344,9 @@
       <c r="C57">
         <v>13</v>
       </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
       <c r="E57">
         <v>470</v>
       </c>
@@ -1199,6 +1358,9 @@
       <c r="C58">
         <v>14</v>
       </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
       <c r="E58">
         <v>410</v>
       </c>
@@ -1210,6 +1372,9 @@
       <c r="C59">
         <v>15</v>
       </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
       <c r="E59">
         <v>411</v>
       </c>
@@ -1221,6 +1386,9 @@
       <c r="C60">
         <v>16</v>
       </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
       <c r="E60">
         <v>419</v>
       </c>
@@ -1232,6 +1400,9 @@
       <c r="C61">
         <v>17</v>
       </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
       <c r="E61">
         <v>538</v>
       </c>
@@ -1243,6 +1414,9 @@
       <c r="C62">
         <v>18</v>
       </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
       <c r="E62">
         <v>455</v>
       </c>
@@ -1254,6 +1428,9 @@
       <c r="C63">
         <v>19</v>
       </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
       <c r="E63">
         <v>496</v>
       </c>
@@ -1265,6 +1442,9 @@
       <c r="C64">
         <v>20</v>
       </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
       <c r="E64">
         <v>538</v>
       </c>
@@ -1276,6 +1456,9 @@
       <c r="C65">
         <v>21</v>
       </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
       <c r="E65">
         <v>416</v>
       </c>
@@ -1287,6 +1470,9 @@
       <c r="C66">
         <v>22</v>
       </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
       <c r="E66">
         <v>411</v>
       </c>
@@ -1298,6 +1484,9 @@
       <c r="C67">
         <v>23</v>
       </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
       <c r="E67">
         <v>415</v>
       </c>
@@ -1309,6 +1498,9 @@
       <c r="C68">
         <v>24</v>
       </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
       <c r="E68">
         <v>419</v>
       </c>
@@ -1320,6 +1512,9 @@
       <c r="C69">
         <v>25</v>
       </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
       <c r="E69">
         <v>470</v>
       </c>
@@ -1331,6 +1526,9 @@
       <c r="C70">
         <v>26</v>
       </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
       <c r="E70">
         <v>410</v>
       </c>
@@ -1342,6 +1540,9 @@
       <c r="C71">
         <v>27</v>
       </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
       <c r="E71">
         <v>435</v>
       </c>
@@ -1353,6 +1554,9 @@
       <c r="C72">
         <v>28</v>
       </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
       <c r="E72">
         <v>496</v>
       </c>
@@ -1367,6 +1571,9 @@
       <c r="C73">
         <v>1</v>
       </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
       <c r="E73">
         <v>405</v>
       </c>
@@ -1378,6 +1585,9 @@
       <c r="C74">
         <v>2</v>
       </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
       <c r="E74">
         <v>419</v>
       </c>
@@ -1389,6 +1599,9 @@
       <c r="C75">
         <v>3</v>
       </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
       <c r="E75">
         <v>470</v>
       </c>
@@ -1400,6 +1613,9 @@
       <c r="C76">
         <v>4</v>
       </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
       <c r="E76">
         <v>410</v>
       </c>
@@ -1411,6 +1627,9 @@
       <c r="C77">
         <v>5</v>
       </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
       <c r="E77">
         <v>416</v>
       </c>
@@ -1422,6 +1641,9 @@
       <c r="C78">
         <v>6</v>
       </c>
+      <c r="D78" t="s">
+        <v>28</v>
+      </c>
       <c r="E78">
         <v>500</v>
       </c>
@@ -1433,6 +1655,9 @@
       <c r="C79">
         <v>7</v>
       </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
       <c r="E79">
         <v>455</v>
       </c>
@@ -1444,6 +1669,9 @@
       <c r="C80">
         <v>8</v>
       </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
       <c r="E80">
         <v>496</v>
       </c>
@@ -1455,6 +1683,9 @@
       <c r="C81">
         <v>9</v>
       </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
       <c r="E81">
         <v>411</v>
       </c>
@@ -1466,6 +1697,9 @@
       <c r="C82">
         <v>10</v>
       </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
       <c r="E82">
         <v>538</v>
       </c>
@@ -1477,6 +1711,9 @@
       <c r="C83">
         <v>11</v>
       </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
       <c r="E83">
         <v>415</v>
       </c>
@@ -1488,6 +1725,9 @@
       <c r="C84">
         <v>12</v>
       </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
       <c r="E84">
         <v>419</v>
       </c>
@@ -1499,6 +1739,9 @@
       <c r="C85">
         <v>13</v>
       </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
       <c r="E85">
         <v>419</v>
       </c>
@@ -1510,6 +1753,9 @@
       <c r="C86">
         <v>14</v>
       </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
       <c r="E86">
         <v>470</v>
       </c>
@@ -1521,6 +1767,9 @@
       <c r="C87">
         <v>15</v>
       </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
       <c r="E87">
         <v>416</v>
       </c>
@@ -1532,6 +1781,9 @@
       <c r="C88">
         <v>16</v>
       </c>
+      <c r="D88" t="s">
+        <v>29</v>
+      </c>
       <c r="E88">
         <v>405</v>
       </c>
@@ -1543,6 +1795,9 @@
       <c r="C89">
         <v>17</v>
       </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
       <c r="E89">
         <v>410</v>
       </c>
@@ -1554,6 +1809,9 @@
       <c r="C90">
         <v>18</v>
       </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
       <c r="E90">
         <v>455</v>
       </c>
@@ -1565,6 +1823,9 @@
       <c r="C91">
         <v>19</v>
       </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
       <c r="E91">
         <v>538</v>
       </c>
@@ -1576,6 +1837,9 @@
       <c r="C92">
         <v>20</v>
       </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
       <c r="E92">
         <v>411</v>
       </c>
@@ -1587,6 +1851,9 @@
       <c r="C93">
         <v>21</v>
       </c>
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
       <c r="E93">
         <v>500</v>
       </c>
@@ -1598,6 +1865,9 @@
       <c r="C94">
         <v>22</v>
       </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
       <c r="E94">
         <v>415</v>
       </c>
@@ -1609,6 +1879,9 @@
       <c r="C95">
         <v>23</v>
       </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
       <c r="E95">
         <v>496</v>
       </c>
@@ -1620,6 +1893,9 @@
       <c r="C96">
         <v>24</v>
       </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
       <c r="E96">
         <v>419</v>
       </c>
@@ -1631,6 +1907,9 @@
       <c r="C97">
         <v>25</v>
       </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
       <c r="E97">
         <v>410</v>
       </c>
@@ -1642,6 +1921,9 @@
       <c r="C98">
         <v>26</v>
       </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
       <c r="E98">
         <v>455</v>
       </c>
@@ -1653,6 +1935,9 @@
       <c r="C99">
         <v>27</v>
       </c>
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
       <c r="E99">
         <v>405</v>
       </c>
@@ -1664,6 +1949,9 @@
       <c r="C100">
         <v>28</v>
       </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
       <c r="E100">
         <v>416</v>
       </c>
@@ -1675,6 +1963,9 @@
       <c r="C101">
         <v>29</v>
       </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
       <c r="E101">
         <v>470</v>
       </c>
@@ -1686,6 +1977,9 @@
       <c r="C102">
         <v>30</v>
       </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
       <c r="E102">
         <v>411</v>
       </c>
@@ -1697,6 +1991,9 @@
       <c r="C103">
         <v>31</v>
       </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
       <c r="E103">
         <v>455</v>
       </c>
@@ -1708,6 +2005,9 @@
       <c r="C104">
         <v>32</v>
       </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
       <c r="E104">
         <v>538</v>
       </c>
@@ -1719,6 +2019,9 @@
       <c r="C105">
         <v>33</v>
       </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
       <c r="E105">
         <v>419</v>
       </c>
@@ -1730,6 +2033,9 @@
       <c r="C106">
         <v>34</v>
       </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
       <c r="E106">
         <v>496</v>
       </c>
@@ -1741,6 +2047,9 @@
       <c r="C107">
         <v>35</v>
       </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
       <c r="E107">
         <v>419</v>
       </c>
@@ -1752,6 +2061,9 @@
       <c r="C108">
         <v>36</v>
       </c>
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
       <c r="E108">
         <v>435</v>
       </c>
@@ -1763,6 +2075,9 @@
       <c r="C109">
         <v>37</v>
       </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
       <c r="E109">
         <v>410</v>
       </c>
@@ -1774,6 +2089,9 @@
       <c r="C110">
         <v>38</v>
       </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
       <c r="E110">
         <v>455</v>
       </c>
@@ -1788,6 +2106,9 @@
       <c r="C111">
         <v>1</v>
       </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
       <c r="E111">
         <v>405</v>
       </c>
@@ -1800,6 +2121,9 @@
       <c r="C112">
         <v>2</v>
       </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
       <c r="E112">
         <v>419</v>
       </c>
@@ -1812,6 +2136,9 @@
       <c r="C113">
         <v>3</v>
       </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
       <c r="E113">
         <v>420</v>
       </c>
@@ -1824,6 +2151,9 @@
       <c r="C114">
         <v>4</v>
       </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
       <c r="E114">
         <v>538</v>
       </c>
@@ -1836,6 +2166,9 @@
       <c r="C115">
         <v>5</v>
       </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
       <c r="E115">
         <v>410</v>
       </c>
@@ -1848,6 +2181,9 @@
       <c r="C116">
         <v>6</v>
       </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
       <c r="E116">
         <v>500</v>
       </c>
@@ -1860,6 +2196,9 @@
       <c r="C117">
         <v>7</v>
       </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
       <c r="E117">
         <v>409</v>
       </c>
@@ -1872,6 +2211,9 @@
       <c r="C118">
         <v>8</v>
       </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
       <c r="E118">
         <v>455</v>
       </c>
@@ -1884,6 +2226,9 @@
       <c r="C119">
         <v>9</v>
       </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
       <c r="E119">
         <v>470</v>
       </c>
@@ -1896,6 +2241,9 @@
       <c r="C120">
         <v>10</v>
       </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
       <c r="E120">
         <v>416</v>
       </c>
@@ -1908,6 +2256,9 @@
       <c r="C121">
         <v>11</v>
       </c>
+      <c r="D121" t="s">
+        <v>25</v>
+      </c>
       <c r="E121">
         <v>411</v>
       </c>
@@ -1920,6 +2271,9 @@
       <c r="C122">
         <v>12</v>
       </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
       <c r="E122">
         <v>405</v>
       </c>
@@ -1932,6 +2286,9 @@
       <c r="C123">
         <v>13</v>
       </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
       <c r="E123">
         <v>496</v>
       </c>
@@ -1944,6 +2301,9 @@
       <c r="C124">
         <v>14</v>
       </c>
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
       <c r="E124">
         <v>435</v>
       </c>
@@ -1956,6 +2316,9 @@
       <c r="C125">
         <v>15</v>
       </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
       <c r="E125">
         <v>399</v>
       </c>
@@ -1970,6 +2333,9 @@
       <c r="C126">
         <v>1</v>
       </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
       <c r="E126">
         <v>410</v>
       </c>
@@ -1981,6 +2347,9 @@
       <c r="C127">
         <v>2</v>
       </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
       <c r="E127">
         <v>496</v>
       </c>
@@ -1992,6 +2361,9 @@
       <c r="C128">
         <v>3</v>
       </c>
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
       <c r="E128">
         <v>405</v>
       </c>
@@ -2003,6 +2375,9 @@
       <c r="C129">
         <v>4</v>
       </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
       <c r="E129">
         <v>420</v>
       </c>
@@ -2014,6 +2389,9 @@
       <c r="C130">
         <v>5</v>
       </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
       <c r="E130">
         <v>419</v>
       </c>
@@ -2025,6 +2403,9 @@
       <c r="C131">
         <v>6</v>
       </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
       <c r="E131">
         <v>500</v>
       </c>
@@ -2036,6 +2417,9 @@
       <c r="C132">
         <v>7</v>
       </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
       <c r="E132">
         <v>415</v>
       </c>
@@ -2047,6 +2431,9 @@
       <c r="C133">
         <v>8</v>
       </c>
+      <c r="D133" t="s">
+        <v>24</v>
+      </c>
       <c r="E133">
         <v>453</v>
       </c>
@@ -2058,6 +2445,9 @@
       <c r="C134">
         <v>9</v>
       </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
       <c r="E134">
         <v>455</v>
       </c>
@@ -2069,6 +2459,9 @@
       <c r="C135">
         <v>10</v>
       </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
       <c r="E135">
         <v>455</v>
       </c>
@@ -2080,6 +2473,9 @@
       <c r="C136">
         <v>11</v>
       </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
       <c r="E136">
         <v>538</v>
       </c>
@@ -2091,6 +2487,9 @@
       <c r="C137">
         <v>12</v>
       </c>
+      <c r="D137" t="s">
+        <v>26</v>
+      </c>
       <c r="E137">
         <v>470</v>
       </c>
@@ -2102,6 +2501,9 @@
       <c r="C138">
         <v>13</v>
       </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
       <c r="E138">
         <v>390</v>
       </c>
@@ -2113,6 +2515,9 @@
       <c r="C139">
         <v>14</v>
       </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
       <c r="E139">
         <v>419</v>
       </c>
@@ -2124,6 +2529,9 @@
       <c r="C140">
         <v>15</v>
       </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
       <c r="E140">
         <v>496</v>
       </c>
@@ -2135,6 +2543,9 @@
       <c r="C141">
         <v>16</v>
       </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
       <c r="E141">
         <v>405</v>
       </c>
@@ -2146,6 +2557,9 @@
       <c r="C142">
         <v>17</v>
       </c>
+      <c r="D142" t="s">
+        <v>29</v>
+      </c>
       <c r="E142">
         <v>405</v>
       </c>
@@ -2157,6 +2571,9 @@
       <c r="C143">
         <v>18</v>
       </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
       <c r="E143">
         <v>435</v>
       </c>
@@ -2168,6 +2585,9 @@
       <c r="C144">
         <v>19</v>
       </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
       <c r="E144">
         <v>420</v>
       </c>
@@ -2179,6 +2599,9 @@
       <c r="C145">
         <v>20</v>
       </c>
+      <c r="D145" t="s">
+        <v>24</v>
+      </c>
       <c r="E145">
         <v>453</v>
       </c>
@@ -2190,6 +2613,9 @@
       <c r="C146">
         <v>21</v>
       </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
       <c r="E146">
         <v>480</v>
       </c>
@@ -2201,6 +2627,9 @@
       <c r="C147">
         <v>22</v>
       </c>
+      <c r="D147" t="s">
+        <v>20</v>
+      </c>
       <c r="E147">
         <v>445</v>
       </c>
@@ -2212,6 +2641,9 @@
       <c r="C148">
         <v>23</v>
       </c>
+      <c r="D148" t="s">
+        <v>26</v>
+      </c>
       <c r="E148">
         <v>470</v>
       </c>
@@ -2223,6 +2655,9 @@
       <c r="C149">
         <v>24</v>
       </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
       <c r="E149">
         <v>419</v>
       </c>
@@ -2234,6 +2669,9 @@
       <c r="C150">
         <v>25</v>
       </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
       <c r="E150">
         <v>410</v>
       </c>
@@ -2245,6 +2683,9 @@
       <c r="C151">
         <v>26</v>
       </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
       <c r="E151">
         <v>496</v>
       </c>
@@ -2256,6 +2697,9 @@
       <c r="C152">
         <v>27</v>
       </c>
+      <c r="D152" t="s">
+        <v>27</v>
+      </c>
       <c r="E152">
         <v>419</v>
       </c>
@@ -2267,6 +2711,9 @@
       <c r="C153">
         <v>28</v>
       </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
       <c r="E153">
         <v>415</v>
       </c>
@@ -2278,6 +2725,9 @@
       <c r="C154">
         <v>29</v>
       </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
       <c r="E154">
         <v>420</v>
       </c>
@@ -2289,6 +2739,9 @@
       <c r="C155">
         <v>30</v>
       </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
       <c r="E155">
         <v>455</v>
       </c>
@@ -2300,6 +2753,9 @@
       <c r="C156">
         <v>31</v>
       </c>
+      <c r="D156" t="s">
+        <v>24</v>
+      </c>
       <c r="E156">
         <v>453</v>
       </c>
@@ -2311,6 +2767,9 @@
       <c r="C157">
         <v>32</v>
       </c>
+      <c r="D157" t="s">
+        <v>29</v>
+      </c>
       <c r="E157">
         <v>405</v>
       </c>
@@ -2322,6 +2781,9 @@
       <c r="C158">
         <v>33</v>
       </c>
+      <c r="D158" t="s">
+        <v>20</v>
+      </c>
       <c r="E158">
         <v>445</v>
       </c>
@@ -2333,6 +2795,9 @@
       <c r="C159">
         <v>34</v>
       </c>
+      <c r="D159" t="s">
+        <v>26</v>
+      </c>
       <c r="E159">
         <v>470</v>
       </c>
@@ -2344,6 +2809,9 @@
       <c r="C160">
         <v>35</v>
       </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
       <c r="E160">
         <v>419</v>
       </c>
@@ -2355,6 +2823,9 @@
       <c r="C161">
         <v>36</v>
       </c>
+      <c r="D161" t="s">
+        <v>27</v>
+      </c>
       <c r="E161">
         <v>419</v>
       </c>
@@ -2366,6 +2837,9 @@
       <c r="C162">
         <v>37</v>
       </c>
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
       <c r="E162">
         <v>496</v>
       </c>
@@ -2377,6 +2851,9 @@
       <c r="C163">
         <v>38</v>
       </c>
+      <c r="D163" t="s">
+        <v>19</v>
+      </c>
       <c r="E163">
         <v>420</v>
       </c>
@@ -2388,6 +2865,9 @@
       <c r="C164">
         <v>39</v>
       </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
       <c r="E164">
         <v>455</v>
       </c>
@@ -2399,6 +2879,9 @@
       <c r="C165">
         <v>40</v>
       </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
       <c r="E165">
         <v>415</v>
       </c>
@@ -2410,6 +2893,9 @@
       <c r="C166">
         <v>41</v>
       </c>
+      <c r="D166" t="s">
+        <v>29</v>
+      </c>
       <c r="E166">
         <v>405</v>
       </c>
@@ -2421,6 +2907,9 @@
       <c r="C167">
         <v>42</v>
       </c>
+      <c r="D167" t="s">
+        <v>24</v>
+      </c>
       <c r="E167">
         <v>453</v>
       </c>
@@ -2435,6 +2924,9 @@
       <c r="C168">
         <v>1</v>
       </c>
+      <c r="D168" t="s">
+        <v>29</v>
+      </c>
       <c r="E168">
         <v>405</v>
       </c>
@@ -2446,6 +2938,9 @@
       <c r="C169">
         <v>2</v>
       </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
       <c r="E169">
         <v>419</v>
       </c>
@@ -2457,6 +2952,9 @@
       <c r="C170">
         <v>3</v>
       </c>
+      <c r="D170" t="s">
+        <v>19</v>
+      </c>
       <c r="E170">
         <v>420</v>
       </c>
@@ -2468,6 +2966,9 @@
       <c r="C171">
         <v>4</v>
       </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
       <c r="E171">
         <v>416</v>
       </c>
@@ -2479,6 +2980,9 @@
       <c r="C172">
         <v>5</v>
       </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
       <c r="E172">
         <v>455</v>
       </c>
@@ -2490,6 +2994,9 @@
       <c r="C173">
         <v>6</v>
       </c>
+      <c r="D173" t="s">
+        <v>26</v>
+      </c>
       <c r="E173">
         <v>470</v>
       </c>
@@ -2501,6 +3008,9 @@
       <c r="C174">
         <v>7</v>
       </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
       <c r="E174">
         <v>410</v>
       </c>
@@ -2512,6 +3022,9 @@
       <c r="C175">
         <v>8</v>
       </c>
+      <c r="D175" t="s">
+        <v>17</v>
+      </c>
       <c r="E175">
         <v>496</v>
       </c>
@@ -2523,6 +3036,9 @@
       <c r="C176">
         <v>9</v>
       </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
       <c r="E176">
         <v>415</v>
       </c>
@@ -2534,6 +3050,9 @@
       <c r="C177">
         <v>10</v>
       </c>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
       <c r="E177">
         <v>538</v>
       </c>
@@ -2545,6 +3064,9 @@
       <c r="C178">
         <v>11</v>
       </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
       <c r="E178">
         <v>500</v>
       </c>
@@ -2556,6 +3078,9 @@
       <c r="C179">
         <v>12</v>
       </c>
+      <c r="D179" t="s">
+        <v>27</v>
+      </c>
       <c r="E179">
         <v>419</v>
       </c>
@@ -2567,6 +3092,9 @@
       <c r="C180">
         <v>13</v>
       </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
       <c r="E180">
         <v>455</v>
       </c>
@@ -2578,6 +3106,9 @@
       <c r="C181">
         <v>14</v>
       </c>
+      <c r="D181" t="s">
+        <v>24</v>
+      </c>
       <c r="E181">
         <v>453</v>
       </c>
@@ -2589,6 +3120,9 @@
       <c r="C182">
         <v>15</v>
       </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
       <c r="E182">
         <v>410</v>
       </c>
@@ -2600,6 +3134,9 @@
       <c r="C183">
         <v>16</v>
       </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
       <c r="E183">
         <v>419</v>
       </c>
@@ -2611,6 +3148,9 @@
       <c r="C184">
         <v>17</v>
       </c>
+      <c r="D184" t="s">
+        <v>30</v>
+      </c>
       <c r="E184">
         <v>435</v>
       </c>
@@ -2622,6 +3162,9 @@
       <c r="C185">
         <v>18</v>
       </c>
+      <c r="D185" t="s">
+        <v>29</v>
+      </c>
       <c r="E185">
         <v>405</v>
       </c>
@@ -2633,6 +3176,9 @@
       <c r="C186">
         <v>19</v>
       </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
       <c r="E186">
         <v>416</v>
       </c>
@@ -2644,6 +3190,9 @@
       <c r="C187">
         <v>20</v>
       </c>
+      <c r="D187" t="s">
+        <v>26</v>
+      </c>
       <c r="E187">
         <v>470</v>
       </c>
@@ -2655,6 +3204,9 @@
       <c r="C188">
         <v>21</v>
       </c>
+      <c r="D188" t="s">
+        <v>6</v>
+      </c>
       <c r="E188">
         <v>455</v>
       </c>
@@ -2666,6 +3218,9 @@
       <c r="C189">
         <v>22</v>
       </c>
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
       <c r="E189">
         <v>496</v>
       </c>
@@ -2677,6 +3232,9 @@
       <c r="C190">
         <v>23</v>
       </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
       <c r="E190">
         <v>500</v>
       </c>
@@ -2688,6 +3246,9 @@
       <c r="C191">
         <v>24</v>
       </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
       <c r="E191">
         <v>415</v>
       </c>
@@ -2699,6 +3260,9 @@
       <c r="C192">
         <v>25</v>
       </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
       <c r="E192">
         <v>455</v>
       </c>
@@ -2710,6 +3274,9 @@
       <c r="C193">
         <v>26</v>
       </c>
+      <c r="D193" t="s">
+        <v>19</v>
+      </c>
       <c r="E193">
         <v>420</v>
       </c>
@@ -2721,6 +3288,9 @@
       <c r="C194">
         <v>27</v>
       </c>
+      <c r="D194" t="s">
+        <v>27</v>
+      </c>
       <c r="E194">
         <v>419</v>
       </c>
@@ -2732,6 +3302,9 @@
       <c r="C195">
         <v>28</v>
       </c>
+      <c r="D195" t="s">
+        <v>14</v>
+      </c>
       <c r="E195">
         <v>410</v>
       </c>
@@ -2743,6 +3316,9 @@
       <c r="C196">
         <v>29</v>
       </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
       <c r="E196">
         <v>538</v>
       </c>
@@ -2754,6 +3330,9 @@
       <c r="C197">
         <v>30</v>
       </c>
+      <c r="D197" t="s">
+        <v>24</v>
+      </c>
       <c r="E197">
         <v>453</v>
       </c>
@@ -2765,6 +3344,9 @@
       <c r="C198">
         <v>31</v>
       </c>
+      <c r="D198" t="s">
+        <v>30</v>
+      </c>
       <c r="E198">
         <v>435</v>
       </c>
@@ -2776,6 +3358,9 @@
       <c r="C199">
         <v>32</v>
       </c>
+      <c r="D199" t="s">
+        <v>29</v>
+      </c>
       <c r="E199">
         <v>405</v>
       </c>
@@ -2787,6 +3372,9 @@
       <c r="C200">
         <v>33</v>
       </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
       <c r="E200">
         <v>455</v>
       </c>
@@ -2798,6 +3386,9 @@
       <c r="C201">
         <v>34</v>
       </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
       <c r="E201">
         <v>416</v>
       </c>
@@ -2809,6 +3400,9 @@
       <c r="C202">
         <v>35</v>
       </c>
+      <c r="D202" t="s">
+        <v>26</v>
+      </c>
       <c r="E202">
         <v>470</v>
       </c>
@@ -2820,6 +3414,9 @@
       <c r="C203">
         <v>36</v>
       </c>
+      <c r="D203" t="s">
+        <v>27</v>
+      </c>
       <c r="E203">
         <v>419</v>
       </c>
@@ -2831,6 +3428,9 @@
       <c r="C204">
         <v>37</v>
       </c>
+      <c r="D204" t="s">
+        <v>17</v>
+      </c>
       <c r="E204">
         <v>496</v>
       </c>
@@ -2842,6 +3442,9 @@
       <c r="C205">
         <v>38</v>
       </c>
+      <c r="D205" t="s">
+        <v>20</v>
+      </c>
       <c r="E205">
         <v>455</v>
       </c>
@@ -2853,6 +3456,9 @@
       <c r="C206">
         <v>39</v>
       </c>
+      <c r="D206" t="s">
+        <v>14</v>
+      </c>
       <c r="E206">
         <v>410</v>
       </c>
@@ -2864,6 +3470,9 @@
       <c r="C207">
         <v>40</v>
       </c>
+      <c r="D207" t="s">
+        <v>24</v>
+      </c>
       <c r="E207">
         <v>453</v>
       </c>
@@ -2875,6 +3484,9 @@
       <c r="C208">
         <v>41</v>
       </c>
+      <c r="D208" t="s">
+        <v>9</v>
+      </c>
       <c r="E208">
         <v>538</v>
       </c>
@@ -2886,6 +3498,9 @@
       <c r="C209">
         <v>42</v>
       </c>
+      <c r="D209" t="s">
+        <v>30</v>
+      </c>
       <c r="E209">
         <v>415</v>
       </c>
@@ -2897,6 +3512,9 @@
       <c r="C210">
         <v>43</v>
       </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
       <c r="E210">
         <v>416</v>
       </c>
@@ -2908,6 +3526,9 @@
       <c r="C211">
         <v>44</v>
       </c>
+      <c r="D211" t="s">
+        <v>29</v>
+      </c>
       <c r="E211">
         <v>405</v>
       </c>
@@ -2919,6 +3540,9 @@
       <c r="C212">
         <v>45</v>
       </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
       <c r="E212">
         <v>455</v>
       </c>
@@ -2933,6 +3557,9 @@
       <c r="C213">
         <v>1</v>
       </c>
+      <c r="D213" t="s">
+        <v>29</v>
+      </c>
       <c r="E213">
         <v>405</v>
       </c>
@@ -2944,6 +3571,9 @@
       <c r="C214">
         <v>2</v>
       </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
       <c r="E214">
         <v>419</v>
       </c>
@@ -2955,6 +3585,9 @@
       <c r="C215">
         <v>3</v>
       </c>
+      <c r="D215" t="s">
+        <v>19</v>
+      </c>
       <c r="E215">
         <v>420</v>
       </c>
@@ -2966,6 +3599,9 @@
       <c r="C216">
         <v>4</v>
       </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
       <c r="E216">
         <v>416</v>
       </c>
@@ -2977,6 +3613,9 @@
       <c r="C217">
         <v>5</v>
       </c>
+      <c r="D217" t="s">
+        <v>9</v>
+      </c>
       <c r="E217">
         <v>538</v>
       </c>
@@ -2988,6 +3627,9 @@
       <c r="C218">
         <v>6</v>
       </c>
+      <c r="D218" t="s">
+        <v>6</v>
+      </c>
       <c r="E218">
         <v>455</v>
       </c>
@@ -2999,6 +3641,9 @@
       <c r="C219">
         <v>7</v>
       </c>
+      <c r="D219" t="s">
+        <v>26</v>
+      </c>
       <c r="E219">
         <v>470</v>
       </c>
@@ -3010,6 +3655,9 @@
       <c r="C220">
         <v>8</v>
       </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
       <c r="E220">
         <v>415</v>
       </c>
@@ -3021,6 +3669,9 @@
       <c r="C221">
         <v>9</v>
       </c>
+      <c r="D221" t="s">
+        <v>27</v>
+      </c>
       <c r="E221">
         <v>419</v>
       </c>
@@ -3032,6 +3683,9 @@
       <c r="C222">
         <v>10</v>
       </c>
+      <c r="D222" t="s">
+        <v>17</v>
+      </c>
       <c r="E222">
         <v>496</v>
       </c>
@@ -3043,6 +3697,9 @@
       <c r="C223">
         <v>11</v>
       </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
       <c r="E223">
         <v>500</v>
       </c>
@@ -3054,6 +3711,9 @@
       <c r="C224">
         <v>12</v>
       </c>
+      <c r="D224" t="s">
+        <v>25</v>
+      </c>
       <c r="E224">
         <v>411</v>
       </c>
@@ -3065,6 +3725,9 @@
       <c r="C225">
         <v>13</v>
       </c>
+      <c r="D225" t="s">
+        <v>20</v>
+      </c>
       <c r="E225">
         <v>455</v>
       </c>
@@ -3076,6 +3739,9 @@
       <c r="C226">
         <v>14</v>
       </c>
+      <c r="D226" t="s">
+        <v>30</v>
+      </c>
       <c r="E226">
         <v>435</v>
       </c>
@@ -3087,6 +3753,9 @@
       <c r="C227">
         <v>15</v>
       </c>
+      <c r="D227" t="s">
+        <v>8</v>
+      </c>
       <c r="E227">
         <v>419</v>
       </c>
@@ -3098,6 +3767,9 @@
       <c r="C228">
         <v>16</v>
       </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
       <c r="E228">
         <v>416</v>
       </c>
@@ -3109,6 +3781,9 @@
       <c r="C229">
         <v>17</v>
       </c>
+      <c r="D229" t="s">
+        <v>19</v>
+      </c>
       <c r="E229">
         <v>419</v>
       </c>
@@ -3120,6 +3795,9 @@
       <c r="C230">
         <v>18</v>
       </c>
+      <c r="D230" t="s">
+        <v>26</v>
+      </c>
       <c r="E230">
         <v>470</v>
       </c>
@@ -3131,6 +3809,9 @@
       <c r="C231">
         <v>19</v>
       </c>
+      <c r="D231" t="s">
+        <v>29</v>
+      </c>
       <c r="E231">
         <v>405</v>
       </c>
@@ -3142,6 +3823,9 @@
       <c r="C232">
         <v>20</v>
       </c>
+      <c r="D232" t="s">
+        <v>9</v>
+      </c>
       <c r="E232">
         <v>538</v>
       </c>
@@ -3153,6 +3837,9 @@
       <c r="C233">
         <v>21</v>
       </c>
+      <c r="D233" t="s">
+        <v>20</v>
+      </c>
       <c r="E233">
         <v>455</v>
       </c>
@@ -3164,6 +3851,9 @@
       <c r="C234">
         <v>22</v>
       </c>
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
       <c r="E234">
         <v>415</v>
       </c>
@@ -3175,6 +3865,9 @@
       <c r="C235">
         <v>23</v>
       </c>
+      <c r="D235" t="s">
+        <v>17</v>
+      </c>
       <c r="E235">
         <v>496</v>
       </c>
@@ -3186,6 +3879,9 @@
       <c r="C236">
         <v>24</v>
       </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
       <c r="E236">
         <v>455</v>
       </c>
@@ -3197,6 +3893,9 @@
       <c r="C237">
         <v>25</v>
       </c>
+      <c r="D237" t="s">
+        <v>25</v>
+      </c>
       <c r="E237">
         <v>411</v>
       </c>
@@ -3208,6 +3907,9 @@
       <c r="C238">
         <v>26</v>
       </c>
+      <c r="D238" t="s">
+        <v>27</v>
+      </c>
       <c r="E238">
         <v>419</v>
       </c>
@@ -3219,6 +3921,9 @@
       <c r="C239">
         <v>27</v>
       </c>
+      <c r="D239" t="s">
+        <v>30</v>
+      </c>
       <c r="E239">
         <v>435</v>
       </c>
@@ -3230,6 +3935,9 @@
       <c r="C240">
         <v>28</v>
       </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
       <c r="E240">
         <v>500</v>
       </c>
@@ -3241,6 +3949,9 @@
       <c r="C241">
         <v>29</v>
       </c>
+      <c r="D241" t="s">
+        <v>8</v>
+      </c>
       <c r="E241">
         <v>419</v>
       </c>
@@ -3255,6 +3966,9 @@
       <c r="C242">
         <v>1</v>
       </c>
+      <c r="D242" t="s">
+        <v>29</v>
+      </c>
       <c r="E242">
         <v>405</v>
       </c>
@@ -3266,6 +3980,9 @@
       <c r="C243">
         <v>2</v>
       </c>
+      <c r="D243" t="s">
+        <v>19</v>
+      </c>
       <c r="E243">
         <v>420</v>
       </c>
@@ -3277,6 +3994,9 @@
       <c r="C244">
         <v>3</v>
       </c>
+      <c r="D244" t="s">
+        <v>8</v>
+      </c>
       <c r="E244">
         <v>419</v>
       </c>
@@ -3288,6 +4008,9 @@
       <c r="C245">
         <v>4</v>
       </c>
+      <c r="D245" t="s">
+        <v>24</v>
+      </c>
       <c r="E245">
         <v>453</v>
       </c>
@@ -3299,6 +4022,9 @@
       <c r="C246">
         <v>5</v>
       </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
       <c r="E246">
         <v>415</v>
       </c>
@@ -3310,6 +4036,9 @@
       <c r="C247">
         <v>6</v>
       </c>
+      <c r="D247" t="s">
+        <v>9</v>
+      </c>
       <c r="E247">
         <v>538</v>
       </c>
@@ -3321,6 +4050,9 @@
       <c r="C248">
         <v>7</v>
       </c>
+      <c r="D248" t="s">
+        <v>17</v>
+      </c>
       <c r="E248">
         <v>496</v>
       </c>
@@ -3332,6 +4064,9 @@
       <c r="C249">
         <v>8</v>
       </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
       <c r="E249">
         <v>500</v>
       </c>
@@ -3343,6 +4078,9 @@
       <c r="C250">
         <v>9</v>
       </c>
+      <c r="D250" t="s">
+        <v>26</v>
+      </c>
       <c r="E250">
         <v>470</v>
       </c>
@@ -3354,6 +4092,9 @@
       <c r="C251">
         <v>10</v>
       </c>
+      <c r="D251" t="s">
+        <v>27</v>
+      </c>
       <c r="E251">
         <v>419</v>
       </c>
@@ -3365,6 +4106,9 @@
       <c r="C252">
         <v>11</v>
       </c>
+      <c r="D252" t="s">
+        <v>25</v>
+      </c>
       <c r="E252">
         <v>411</v>
       </c>
@@ -3376,6 +4120,9 @@
       <c r="C253">
         <v>12</v>
       </c>
+      <c r="D253" t="s">
+        <v>20</v>
+      </c>
       <c r="E253">
         <v>455</v>
       </c>
@@ -3387,6 +4134,9 @@
       <c r="C254">
         <v>13</v>
       </c>
+      <c r="D254" t="s">
+        <v>30</v>
+      </c>
       <c r="E254">
         <v>435</v>
       </c>
@@ -3398,6 +4148,9 @@
       <c r="C255">
         <v>14</v>
       </c>
+      <c r="D255" t="s">
+        <v>8</v>
+      </c>
       <c r="E255">
         <v>419</v>
       </c>
@@ -3409,6 +4162,9 @@
       <c r="C256">
         <v>15</v>
       </c>
+      <c r="D256" t="s">
+        <v>29</v>
+      </c>
       <c r="E256">
         <v>405</v>
       </c>
@@ -3420,6 +4176,9 @@
       <c r="C257">
         <v>16</v>
       </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
       <c r="E257">
         <v>500</v>
       </c>
@@ -3431,6 +4190,9 @@
       <c r="C258">
         <v>17</v>
       </c>
+      <c r="D258" t="s">
+        <v>27</v>
+      </c>
       <c r="E258">
         <v>419</v>
       </c>
@@ -3442,6 +4204,9 @@
       <c r="C259">
         <v>18</v>
       </c>
+      <c r="D259" t="s">
+        <v>19</v>
+      </c>
       <c r="E259">
         <v>420</v>
       </c>
@@ -3453,6 +4218,9 @@
       <c r="C260">
         <v>19</v>
       </c>
+      <c r="D260" t="s">
+        <v>10</v>
+      </c>
       <c r="E260">
         <v>416</v>
       </c>
@@ -3464,6 +4232,9 @@
       <c r="C261">
         <v>20</v>
       </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
       <c r="E261">
         <v>455</v>
       </c>
@@ -3475,6 +4246,9 @@
       <c r="C262">
         <v>21</v>
       </c>
+      <c r="D262" t="s">
+        <v>24</v>
+      </c>
       <c r="E262">
         <v>453</v>
       </c>
@@ -3486,6 +4260,9 @@
       <c r="C263">
         <v>22</v>
       </c>
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
       <c r="E263">
         <v>518</v>
       </c>
@@ -3497,6 +4274,9 @@
       <c r="C264">
         <v>23</v>
       </c>
+      <c r="D264" t="s">
+        <v>30</v>
+      </c>
       <c r="E264">
         <v>415</v>
       </c>
@@ -3508,6 +4288,9 @@
       <c r="C265">
         <v>24</v>
       </c>
+      <c r="D265" t="s">
+        <v>17</v>
+      </c>
       <c r="E265">
         <v>496</v>
       </c>
@@ -3519,6 +4302,9 @@
       <c r="C266">
         <v>25</v>
       </c>
+      <c r="D266" t="s">
+        <v>8</v>
+      </c>
       <c r="E266">
         <v>419</v>
       </c>
@@ -3530,6 +4316,9 @@
       <c r="C267">
         <v>26</v>
       </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
       <c r="E267">
         <v>415</v>
       </c>
@@ -3541,6 +4330,9 @@
       <c r="C268">
         <v>27</v>
       </c>
+      <c r="D268" t="s">
+        <v>26</v>
+      </c>
       <c r="E268">
         <v>470</v>
       </c>
@@ -3552,6 +4344,9 @@
       <c r="C269">
         <v>28</v>
       </c>
+      <c r="D269" t="s">
+        <v>29</v>
+      </c>
       <c r="E269">
         <v>405</v>
       </c>
@@ -3563,6 +4358,9 @@
       <c r="C270">
         <v>29</v>
       </c>
+      <c r="D270" t="s">
+        <v>28</v>
+      </c>
       <c r="E270">
         <v>500</v>
       </c>
@@ -3573,6 +4371,9 @@
       </c>
       <c r="C271">
         <v>30</v>
+      </c>
+      <c r="D271" t="s">
+        <v>27</v>
       </c>
       <c r="E271">
         <v>419</v>
@@ -3609,7 +4410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/1-14-feb-bill5/1_14_feb_bill.xlsx
+++ b/1-14-feb-bill5/1_14_feb_bill.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>sanjay</t>
+  </si>
+  <si>
+    <t>mehmood</t>
   </si>
 </sst>
 </file>
@@ -530,12 +533,13 @@
   <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="D273" sqref="D273"/>
+      <selection activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1087,7 +1091,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E39">
         <v>538</v>
@@ -1129,7 +1133,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>430</v>
@@ -1401,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>538</v>
@@ -1555,7 +1559,7 @@
         <v>28</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E72">
         <v>496</v>
@@ -2076,7 +2080,7 @@
         <v>37</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E109">
         <v>410</v>
@@ -2090,7 +2094,7 @@
         <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E110">
         <v>455</v>
@@ -2852,7 +2856,7 @@
         <v>38</v>
       </c>
       <c r="D163" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E163">
         <v>420</v>
@@ -2866,7 +2870,7 @@
         <v>39</v>
       </c>
       <c r="D164" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E164">
         <v>455</v>
@@ -2894,7 +2898,7 @@
         <v>41</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E166">
         <v>405</v>
@@ -3009,7 +3013,7 @@
         <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E174">
         <v>410</v>
@@ -3233,7 +3237,7 @@
         <v>23</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E190">
         <v>500</v>
@@ -3401,7 +3405,7 @@
         <v>35</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E202">
         <v>470</v>
@@ -3471,7 +3475,7 @@
         <v>40</v>
       </c>
       <c r="D207" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E207">
         <v>453</v>
@@ -4345,7 +4349,7 @@
         <v>28</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E269">
         <v>405</v>
@@ -4359,7 +4363,7 @@
         <v>29</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E270">
         <v>500</v>

--- a/1-14-feb-bill5/1_14_feb_bill.xlsx
+++ b/1-14-feb-bill5/1_14_feb_bill.xlsx
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="D271" sqref="D271"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3789,7 +3789,7 @@
         <v>19</v>
       </c>
       <c r="E229">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4400,7 +4400,7 @@
     <row r="273" spans="5:5">
       <c r="E273">
         <f>SUM(E2:E272)</f>
-        <v>120388</v>
+        <v>120389</v>
       </c>
     </row>
   </sheetData>

--- a/1-14-feb-bill5/1_14_feb_bill.xlsx
+++ b/1-14-feb-bill5/1_14_feb_bill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+    <sheetView topLeftCell="A126" workbookViewId="0">
       <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
@@ -4414,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5210,7 +5210,7 @@
         <v>22</v>
       </c>
       <c r="C93">
-        <v>8500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="C94">
         <f>SUM(C79:C93)</f>
-        <v>39000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="95" spans="1:3">

--- a/1-14-feb-bill5/1_14_feb_bill.xlsx
+++ b/1-14-feb-bill5/1_14_feb_bill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -993,7 +993,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>538</v>
@@ -1091,7 +1091,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E39">
         <v>538</v>
@@ -4414,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
